--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B7571-AA9D-5F47-B2A9-951692BF6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244D932-C16E-4C4B-B2C9-EBBC04C0574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
@@ -724,9 +724,6 @@
     <t>2442-2445</t>
   </si>
   <si>
-    <t>ns Ring-fused Bicyclic Structures by 6-exo-Trigonal Radical Closure: Use of the Triethylborane-Stannane-Air System for Intramolecular Radical Addition to Aldehydes</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Postema, M.H.D.</t>
   </si>
   <si>
@@ -1348,9 +1345,6 @@
     <t>Clive, D.L.J.; Sgarbi, P.W.M.; He, X.; Sun, S.; Zhang, J.; Ou, L. Can.</t>
   </si>
   <si>
-    <t>. Chem.</t>
-  </si>
-  <si>
     <t>811-824</t>
   </si>
   <si>
@@ -1988,6 +1982,12 @@
   </si>
   <si>
     <t>Total Synthesis of Crystalline (±)-Fredericamycin A, Clive, D.L.J.; Tao, Y.; Khodabocus, A.; Wu, Y.-J.; Angoh, A.G.; Bennett, S.M.; Boddy, C.N.; Bordeleau, L.; Cantin, M.; Cheshire, D.R.; Kellner, D.; Kleiner, G.; Middleton, D.S.; Nichols, C.J.; Richardson, S.R.; Set, L.; Vernon, P.G. "Studies in Natural Products Chemistry", Atta-ur-Rahman, Ed.; Elsevier: Amsterdam, 1995; Vol. 16, 27-74</t>
+  </si>
+  <si>
+    <t>J. Chem.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;trans&lt;/i&gt; Ring-fused Bicyclic Structures by 6-exo-Trigonal Radical Closure: Use of the Triethylborane-Stannane-Air System for Intramolecular Radical Addition to Aldehydes</t>
   </si>
 </sst>
 </file>
@@ -2855,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D12" s="1">
         <v>1976</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -3353,13 +3353,13 @@
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D28" s="1">
         <v>1980</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -3464,13 +3464,13 @@
     </row>
     <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D34" s="1">
         <v>1981</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -4346,7 +4346,7 @@
     </row>
     <row r="82" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -4388,10 +4388,10 @@
     </row>
     <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>16</v>
@@ -4400,15 +4400,15 @@
         <v>1993</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>61</v>
@@ -4420,15 +4420,15 @@
         <v>49</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -4437,15 +4437,15 @@
         <v>1993</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -4454,15 +4454,15 @@
         <v>1993</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>16</v>
@@ -4471,15 +4471,15 @@
         <v>1993</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>72</v>
@@ -4491,15 +4491,15 @@
         <v>58</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>16</v>
@@ -4508,15 +4508,15 @@
         <v>1994</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>72</v>
@@ -4528,15 +4528,15 @@
         <v>59</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>122</v>
@@ -4548,7 +4548,7 @@
         <v>35</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -4568,18 +4568,18 @@
         <v>116</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D95" s="1">
         <v>1995</v>
@@ -4588,15 +4588,15 @@
         <v>489</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>122</v>
@@ -4608,15 +4608,15 @@
         <v>36</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>72</v>
@@ -4628,15 +4628,15 @@
         <v>60</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -4645,15 +4645,15 @@
         <v>1995</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>72</v>
@@ -4665,20 +4665,20 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>72</v>
@@ -4690,18 +4690,18 @@
         <v>60</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D102" s="1">
         <v>1996</v>
@@ -4710,15 +4710,15 @@
         <v>281</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>72</v>
@@ -4730,15 +4730,15 @@
         <v>61</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>61</v>
@@ -4750,15 +4750,15 @@
         <v>52</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>33</v>
@@ -4770,49 +4770,49 @@
         <v>118</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D106" s="1">
         <v>1996</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="1">
         <v>1996</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>72</v>
@@ -4824,15 +4824,15 @@
         <v>61</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -4841,18 +4841,18 @@
         <v>1996</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D110" s="1">
         <v>1996</v>
@@ -4861,15 +4861,15 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
@@ -4878,15 +4878,15 @@
         <v>1997</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>72</v>
@@ -4898,15 +4898,15 @@
         <v>62</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>72</v>
@@ -4918,32 +4918,32 @@
         <v>62</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D114" s="1">
         <v>1997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>122</v>
@@ -4955,15 +4955,15 @@
         <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>122</v>
@@ -4975,15 +4975,15 @@
         <v>39</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>122</v>
@@ -4995,15 +4995,15 @@
         <v>39</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>33</v>
@@ -5015,15 +5015,15 @@
         <v>120</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>72</v>
@@ -5035,15 +5035,15 @@
         <v>64</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>61</v>
@@ -5055,15 +5055,15 @@
         <v>55</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>72</v>
@@ -5075,15 +5075,15 @@
         <v>64</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>72</v>
@@ -5095,15 +5095,15 @@
         <v>64</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>72</v>
@@ -5115,15 +5115,15 @@
         <v>64</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>72</v>
@@ -5135,15 +5135,15 @@
         <v>64</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>154</v>
@@ -5155,15 +5155,15 @@
         <v>36</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>122</v>
@@ -5175,15 +5175,15 @@
         <v>40</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>61</v>
@@ -5195,32 +5195,32 @@
         <v>41</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D128" s="1">
         <v>1999</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>122</v>
@@ -5232,32 +5232,32 @@
         <v>40</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D130" s="1">
         <v>2000</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>122</v>
@@ -5269,18 +5269,18 @@
         <v>41</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D132" s="1">
         <v>2000</v>
@@ -5289,18 +5289,18 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D133" s="1">
         <v>2000</v>
@@ -5309,32 +5309,32 @@
         <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D134" s="1">
         <v>2000</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>122</v>
@@ -5346,32 +5346,32 @@
         <v>41</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D136" s="1">
         <v>2000</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>72</v>
@@ -5383,15 +5383,15 @@
         <v>66</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>72</v>
@@ -5403,15 +5403,15 @@
         <v>66</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>72</v>
@@ -5423,15 +5423,15 @@
         <v>66</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>122</v>
@@ -5443,32 +5443,32 @@
         <v>42</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D141" s="1">
         <v>2001</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>61</v>
@@ -5480,18 +5480,18 @@
         <v>57</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D143" s="1">
         <v>2001</v>
@@ -5500,15 +5500,15 @@
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>72</v>
@@ -5520,15 +5520,15 @@
         <v>66</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>72</v>
@@ -5540,15 +5540,15 @@
         <v>66</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>122</v>
@@ -5560,18 +5560,18 @@
         <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D147" s="1">
         <v>2002</v>
@@ -5580,15 +5580,15 @@
         <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>72</v>
@@ -5600,15 +5600,15 @@
         <v>67</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>122</v>
@@ -5620,15 +5620,15 @@
         <v>43</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -5637,15 +5637,15 @@
         <v>2002</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -5654,15 +5654,15 @@
         <v>2002</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>61</v>
@@ -5674,18 +5674,18 @@
         <v>58</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D153" s="1">
         <v>2003</v>
@@ -5694,35 +5694,35 @@
         <v>33</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D154" s="1">
         <v>2003</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>442</v>
+        <v>654</v>
       </c>
       <c r="D155" s="1">
         <v>2003</v>
@@ -5731,18 +5731,18 @@
         <v>81</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D156" s="1">
         <v>2003</v>
@@ -5751,15 +5751,15 @@
         <v>42</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>16</v>
@@ -5768,15 +5768,15 @@
         <v>2003</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>72</v>
@@ -5788,15 +5788,15 @@
         <v>68</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>16</v>
@@ -5805,15 +5805,15 @@
         <v>2003</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>122</v>
@@ -5825,15 +5825,15 @@
         <v>44</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>72</v>
@@ -5845,15 +5845,15 @@
         <v>69</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>72</v>
@@ -5865,15 +5865,15 @@
         <v>69</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>72</v>
@@ -5882,15 +5882,15 @@
         <v>2004</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>72</v>
@@ -5902,15 +5902,15 @@
         <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>122</v>
@@ -5922,15 +5922,15 @@
         <v>45</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>61</v>
@@ -5942,15 +5942,15 @@
         <v>60</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>72</v>
@@ -5962,35 +5962,35 @@
         <v>70</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D168" s="1">
         <v>2005</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D169" s="1">
         <v>2005</v>
@@ -5999,18 +5999,18 @@
         <v>7</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D170" s="1">
         <v>2005</v>
@@ -6019,15 +6019,15 @@
         <v>37</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>122</v>
@@ -6039,18 +6039,18 @@
         <v>46</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="D172" s="1">
         <v>2005</v>
@@ -6059,15 +6059,15 @@
         <v>105</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>122</v>
@@ -6079,18 +6079,18 @@
         <v>46</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D174" s="1">
         <v>2005</v>
@@ -6099,15 +6099,15 @@
         <v>7</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>33</v>
@@ -6119,15 +6119,15 @@
         <v>129</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>122</v>
@@ -6139,18 +6139,18 @@
         <v>48</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D177" s="1">
         <v>2007</v>
@@ -6159,35 +6159,35 @@
         <v>46</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D178" s="1">
         <v>2007</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D179" s="1">
         <v>2007</v>
@@ -6196,15 +6196,15 @@
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>72</v>
@@ -6216,18 +6216,18 @@
         <v>72</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D181" s="1">
         <v>2007</v>
@@ -6236,18 +6236,18 @@
         <v>9</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D182" s="1">
         <v>2007</v>
@@ -6256,18 +6256,18 @@
         <v>9</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D183" s="1">
         <v>2007</v>
@@ -6276,18 +6276,18 @@
         <v>46</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D184" s="1">
         <v>2007</v>
@@ -6296,15 +6296,15 @@
         <v>9</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>72</v>
@@ -6316,15 +6316,15 @@
         <v>73</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>72</v>
@@ -6336,18 +6336,18 @@
         <v>73</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D187" s="1">
         <v>2008</v>
@@ -6356,18 +6356,18 @@
         <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D188" s="1">
         <v>2008</v>
@@ -6376,15 +6376,15 @@
         <v>6</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>72</v>
@@ -6396,15 +6396,15 @@
         <v>73</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>72</v>
@@ -6416,15 +6416,15 @@
         <v>73</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>72</v>
@@ -6436,15 +6436,15 @@
         <v>73</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>72</v>
@@ -6456,15 +6456,15 @@
         <v>74</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>72</v>
@@ -6476,15 +6476,15 @@
         <v>74</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>33</v>
@@ -6496,18 +6496,18 @@
         <v>131</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D195" s="1">
         <v>2009</v>
@@ -6516,15 +6516,15 @@
         <v>7</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>72</v>
@@ -6536,18 +6536,18 @@
         <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D197" s="1">
         <v>2010</v>
@@ -6556,15 +6556,15 @@
         <v>46</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>61</v>
@@ -6576,15 +6576,15 @@
         <v>66</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>72</v>
@@ -6596,15 +6596,15 @@
         <v>75</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>72</v>
@@ -6616,15 +6616,15 @@
         <v>75</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>72</v>
@@ -6636,18 +6636,18 @@
         <v>75</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D202" s="1">
         <v>2011</v>
@@ -6656,15 +6656,15 @@
         <v>13</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>122</v>
@@ -6676,15 +6676,15 @@
         <v>53</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>72</v>
@@ -6696,15 +6696,15 @@
         <v>77</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>72</v>
@@ -6716,18 +6716,18 @@
         <v>77</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D206" s="1">
         <v>2013</v>
@@ -6741,18 +6741,18 @@
     </row>
     <row r="207" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D208" s="1">
         <v>2013</v>
@@ -6761,15 +6761,15 @@
         <v>49</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>72</v>
@@ -6781,18 +6781,18 @@
         <v>78</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D210" s="1">
         <v>2013</v>
@@ -6801,15 +6801,15 @@
         <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>61</v>
@@ -6821,15 +6821,15 @@
         <v>69</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>72</v>
@@ -6841,15 +6841,15 @@
         <v>78</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>72</v>
@@ -6861,15 +6861,15 @@
         <v>80</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>72</v>
@@ -6881,15 +6881,15 @@
         <v>80</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>72</v>
@@ -6901,15 +6901,15 @@
         <v>80</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>122</v>
@@ -6921,18 +6921,18 @@
         <v>56</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D217" s="1">
         <v>2016</v>
@@ -6941,15 +6941,15 @@
         <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>72</v>
@@ -6961,18 +6961,18 @@
         <v>81</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D219" s="1">
         <v>2016</v>
@@ -6981,15 +6981,15 @@
         <v>52</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>72</v>
@@ -7001,15 +7001,15 @@
         <v>81</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>61</v>
@@ -7021,15 +7021,15 @@
         <v>74</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>122</v>
@@ -7041,15 +7041,15 @@
         <v>60</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>72</v>
@@ -7061,15 +7061,15 @@
         <v>84</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>72</v>
@@ -7081,15 +7081,15 @@
         <v>86</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>61</v>
@@ -7101,7 +7101,7 @@
         <v>133</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244D932-C16E-4C4B-B2C9-EBBC04C0574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482EF666-3F3F-D549-A9B9-6789FC182C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="657">
   <si>
     <t>Title</t>
   </si>
@@ -1988,13 +1988,16 @@
   </si>
   <si>
     <t>&lt;i&gt;trans&lt;/i&gt; Ring-fused Bicyclic Structures by 6-exo-Trigonal Radical Closure: Use of the Triethylborane-Stannane-Air System for Intramolecular Radical Addition to Aldehydes</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/QR9682200435</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2140,6 +2143,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2442,7 +2453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2485,8 +2496,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2498,8 +2510,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2533,6 +2548,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2855,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,6 +2929,9 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4668,7 +4687,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>653</v>
       </c>
@@ -4864,7 +4883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>307</v>
       </c>
@@ -6639,7 +6658,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>580</v>
       </c>
@@ -7105,6 +7124,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{BF6F5689-69D1-7143-9ADF-5B2C9AEB2677}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>